--- a/StockInfo/otc_analysis_result_20251127.xlsx
+++ b/StockInfo/otc_analysis_result_20251127.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251127" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20251127" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -594,7 +594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,7 +617,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>【2025-11-27 買超 TOP 50】</t>
+          <t>【2025-11-27 買超 TOP 100】</t>
         </is>
       </c>
       <c r="B1" s="15" t="n"/>
@@ -2667,220 +2667,308 @@
       <c r="J53" s="4" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="n"/>
-      <c r="B54" s="4" t="n"/>
-      <c r="C54" s="4" t="n"/>
-      <c r="D54" s="4" t="n"/>
-      <c r="E54" s="4" t="n"/>
-      <c r="F54" s="4" t="n"/>
-      <c r="G54" s="4" t="n"/>
-      <c r="H54" s="4" t="n"/>
-      <c r="I54" s="4" t="n"/>
-      <c r="J54" s="4" t="n"/>
+      <c r="A54" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>1785</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>光洋科</t>
+        </is>
+      </c>
+      <c r="E54" s="4" t="inlineStr">
+        <is>
+          <t>57.50</t>
+        </is>
+      </c>
+      <c r="F54" s="4" t="inlineStr">
+        <is>
+          <t>+0.3</t>
+        </is>
+      </c>
+      <c r="G54" s="4" t="n">
+        <v>214</v>
+      </c>
+      <c r="H54" s="4" t="inlineStr"/>
+      <c r="I54" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J54" s="4" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="n"/>
-      <c r="B55" s="4" t="n"/>
-      <c r="C55" s="4" t="n"/>
-      <c r="D55" s="4" t="n"/>
-      <c r="E55" s="4" t="n"/>
-      <c r="F55" s="4" t="n"/>
-      <c r="G55" s="4" t="n"/>
-      <c r="H55" s="4" t="n"/>
-      <c r="I55" s="4" t="n"/>
-      <c r="J55" s="4" t="n"/>
+      <c r="A55" s="4" t="n">
+        <v>52</v>
+      </c>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>8088</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>品安</t>
+        </is>
+      </c>
+      <c r="E55" s="4" t="inlineStr">
+        <is>
+          <t>40.75</t>
+        </is>
+      </c>
+      <c r="F55" s="4" t="inlineStr">
+        <is>
+          <t>+1.55</t>
+        </is>
+      </c>
+      <c r="G55" s="4" t="n">
+        <v>214</v>
+      </c>
+      <c r="H55" s="4" t="inlineStr"/>
+      <c r="I55" s="4" t="inlineStr"/>
+      <c r="J55" s="4" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>【2025-11-27 賣超 TOP 20】</t>
-        </is>
-      </c>
-      <c r="B56" s="15" t="n"/>
-      <c r="C56" s="15" t="n"/>
-      <c r="D56" s="15" t="n"/>
-      <c r="E56" s="15" t="n"/>
-      <c r="F56" s="15" t="n"/>
-      <c r="G56" s="15" t="n"/>
-      <c r="H56" s="15" t="n"/>
-      <c r="I56" s="15" t="n"/>
-      <c r="J56" s="16" t="n"/>
+      <c r="A56" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>5905</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>觀光餐旅</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>南仁湖</t>
+        </is>
+      </c>
+      <c r="E56" s="4" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="F56" s="4" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="G56" s="4" t="n">
+        <v>206</v>
+      </c>
+      <c r="H56" s="4" t="inlineStr"/>
+      <c r="I56" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J56" s="4" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="n"/>
-      <c r="B57" s="4" t="n"/>
-      <c r="C57" s="4" t="n"/>
-      <c r="D57" s="4" t="n"/>
-      <c r="E57" s="4" t="n"/>
-      <c r="F57" s="4" t="n"/>
-      <c r="G57" s="4" t="n"/>
-      <c r="H57" s="4" t="n"/>
-      <c r="I57" s="4" t="n"/>
-      <c r="J57" s="4" t="n"/>
+      <c r="A57" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>5864</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>金融保險業</t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="inlineStr">
+        <is>
+          <t>致和證</t>
+        </is>
+      </c>
+      <c r="E57" s="4" t="inlineStr">
+        <is>
+          <t>15.20</t>
+        </is>
+      </c>
+      <c r="F57" s="4" t="inlineStr">
+        <is>
+          <t>+0.2</t>
+        </is>
+      </c>
+      <c r="G57" s="4" t="n">
+        <v>203</v>
+      </c>
+      <c r="H57" s="4" t="inlineStr"/>
+      <c r="I57" s="4" t="inlineStr"/>
+      <c r="J57" s="4" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="inlineStr">
-        <is>
-          <t>排名</t>
-        </is>
-      </c>
-      <c r="B58" s="5" t="inlineStr">
-        <is>
-          <t>證券代號</t>
-        </is>
-      </c>
-      <c r="C58" s="5" t="inlineStr">
-        <is>
-          <t>證券領域</t>
-        </is>
-      </c>
-      <c r="D58" s="5" t="inlineStr">
-        <is>
-          <t>證券名稱</t>
-        </is>
-      </c>
-      <c r="E58" s="5" t="inlineStr">
-        <is>
-          <t>收盤價</t>
-        </is>
-      </c>
-      <c r="F58" s="5" t="inlineStr">
-        <is>
-          <t>漲跌價差</t>
-        </is>
-      </c>
-      <c r="G58" s="5" t="inlineStr">
-        <is>
-          <t>買賣超張數</t>
-        </is>
-      </c>
-      <c r="H58" s="9" t="inlineStr">
-        <is>
-          <t>新進榜</t>
-        </is>
-      </c>
-      <c r="I58" s="10" t="inlineStr">
-        <is>
-          <t>值得觀察</t>
-        </is>
-      </c>
-      <c r="J58" s="11" t="inlineStr">
-        <is>
-          <t>統計數據(60天)</t>
-        </is>
-      </c>
+      <c r="A58" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>8071</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="D58" s="4" t="inlineStr">
+        <is>
+          <t>能率網通</t>
+        </is>
+      </c>
+      <c r="E58" s="4" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="F58" s="4" t="inlineStr">
+        <is>
+          <t>+0.2</t>
+        </is>
+      </c>
+      <c r="G58" s="4" t="n">
+        <v>184</v>
+      </c>
+      <c r="H58" s="4" t="inlineStr"/>
+      <c r="I58" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J58" s="4" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="4" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>6548</t>
+          <t>3294</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>長科*</t>
+          <t>英濟</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>43.05</t>
+          <t>39.80</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>+1.95</t>
+          <t>+0.45</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
-        <v>-2737</v>
-      </c>
-      <c r="H59" s="14" t="inlineStr">
-        <is>
-          <t>📉NEW</t>
-        </is>
-      </c>
-      <c r="I59" s="4" t="inlineStr"/>
+        <v>176</v>
+      </c>
+      <c r="H59" s="4" t="inlineStr"/>
+      <c r="I59" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
       <c r="J59" s="4" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="4" t="n">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>3455</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>由田</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>176.00</t>
+          <t>90.70</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>+1.5</t>
+          <t>+1.8</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
-        <v>-2459</v>
+        <v>171</v>
       </c>
       <c r="H60" s="4" t="inlineStr"/>
       <c r="I60" s="12" t="inlineStr">
         <is>
-          <t>👀連續賣超</t>
+          <t>👀連續買超</t>
         </is>
       </c>
       <c r="J60" s="4" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="4" t="n">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>5498</t>
+          <t>4760</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>凱崴</t>
+          <t>勤凱</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>178.00</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>+0.4</t>
+          <t>+3.5</t>
         </is>
       </c>
       <c r="G61" s="4" t="n">
-        <v>-2007</v>
+        <v>171</v>
       </c>
       <c r="H61" s="4" t="inlineStr"/>
       <c r="I61" s="4" t="inlineStr"/>
@@ -2888,47 +2976,51 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="n">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>5314</t>
+          <t>3587</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>世紀*</t>
+          <t>閎康</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>111.00</t>
+          <t>195.00</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>+5.5</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
-        <v>-1485</v>
+        <v>164</v>
       </c>
       <c r="H62" s="4" t="inlineStr"/>
-      <c r="I62" s="4" t="inlineStr"/>
+      <c r="I62" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
       <c r="J62" s="4" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="4" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>6290</t>
+          <t>6175</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
@@ -2938,21 +3030,21 @@
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>良維</t>
+          <t>立敦</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>184.00</t>
+          <t>46.70</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>+1.15</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
-        <v>-1131</v>
+        <v>161</v>
       </c>
       <c r="H63" s="4" t="inlineStr"/>
       <c r="I63" s="4" t="inlineStr"/>
@@ -2960,83 +3052,79 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="n">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>4533</t>
+          <t>6204</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>協易機</t>
+          <t>艾華</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>21.65</t>
+          <t>77.70</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>+4.1</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
-        <v>-1098</v>
-      </c>
-      <c r="H64" s="14" t="inlineStr">
-        <is>
-          <t>📉NEW</t>
-        </is>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="H64" s="4" t="inlineStr"/>
       <c r="I64" s="12" t="inlineStr">
         <is>
-          <t>👀異常波動(5.3σ)</t>
+          <t>👀異常波動(2.6σ)</t>
         </is>
       </c>
       <c r="J64" s="4" t="inlineStr">
         <is>
-          <t>均:14 標差:212</t>
+          <t>均:-7 標差:63</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="n">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>8042</t>
+          <t>3374</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>金山電</t>
+          <t>精材</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>52.00</t>
+          <t>138.00</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>+1.3</t>
+          <t>+1.0</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
-        <v>-1064</v>
+        <v>152</v>
       </c>
       <c r="H65" s="4" t="inlineStr"/>
       <c r="I65" s="4" t="inlineStr"/>
@@ -3044,75 +3132,75 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="n">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>8069</t>
+          <t>6509</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>化學工業</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>元太</t>
+          <t>聚和</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>193.50</t>
+          <t>35.20</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>+0.25</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
-        <v>-889</v>
+        <v>150</v>
       </c>
       <c r="H66" s="4" t="inlineStr"/>
       <c r="I66" s="12" t="inlineStr">
         <is>
-          <t>👀連續賣超</t>
+          <t>👀連續買超</t>
         </is>
       </c>
       <c r="J66" s="4" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="4" t="n">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>6274</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>台燿</t>
+          <t>盈正</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>432.00</t>
+          <t>74.60</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>+2.0</t>
+          <t>+0.1</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
-        <v>-720</v>
+        <v>145</v>
       </c>
       <c r="H67" s="4" t="inlineStr"/>
       <c r="I67" s="4" t="inlineStr"/>
@@ -3120,51 +3208,47 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>6147</t>
+          <t>3357</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>頎邦</t>
+          <t>臺慶科</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>52.40</t>
+          <t>159.50</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>+0.2</t>
+          <t>+5.0</t>
         </is>
       </c>
       <c r="G68" s="4" t="n">
-        <v>-664</v>
+        <v>144</v>
       </c>
       <c r="H68" s="4" t="inlineStr"/>
-      <c r="I68" s="12" t="inlineStr">
-        <is>
-          <t>👀連續賣超</t>
-        </is>
-      </c>
+      <c r="I68" s="4" t="inlineStr"/>
       <c r="J68" s="4" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="4" t="n">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
@@ -3174,153 +3258,153 @@
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>旺矽</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>2145.00</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>+45.0</t>
         </is>
       </c>
       <c r="G69" s="4" t="n">
-        <v>-642</v>
+        <v>144</v>
       </c>
       <c r="H69" s="4" t="inlineStr"/>
-      <c r="I69" s="4" t="inlineStr"/>
+      <c r="I69" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
       <c r="J69" s="4" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="4" t="n">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>4991</t>
+          <t>5536</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>環宇-KY</t>
+          <t>聖暉*</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>166.50</t>
+          <t>679.00</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>+7.0</t>
         </is>
       </c>
       <c r="G70" s="4" t="n">
-        <v>-630</v>
+        <v>134</v>
       </c>
       <c r="H70" s="4" t="inlineStr"/>
-      <c r="I70" s="12" t="inlineStr">
-        <is>
-          <t>👀連續賣超</t>
-        </is>
-      </c>
+      <c r="I70" s="4" t="inlineStr"/>
       <c r="J70" s="4" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="4" t="n">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>8043</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>世界</t>
+          <t>蜜望實</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>75.60</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>+0.9</t>
+          <t>+0.4</t>
         </is>
       </c>
       <c r="G71" s="4" t="n">
-        <v>-622</v>
+        <v>131</v>
       </c>
       <c r="H71" s="4" t="inlineStr"/>
       <c r="I71" s="12" t="inlineStr">
         <is>
-          <t>👀連續賣超</t>
+          <t>👀連續買超</t>
         </is>
       </c>
       <c r="J71" s="4" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="4" t="n">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>6026</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>金融保險業</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>高鋒</t>
+          <t>福邦證</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>38.10</t>
+          <t>12.05</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>-1.25</t>
+          <t>-0.0</t>
         </is>
       </c>
       <c r="G72" s="4" t="n">
-        <v>-612</v>
-      </c>
-      <c r="H72" s="14" t="inlineStr">
-        <is>
-          <t>📉NEW</t>
-        </is>
-      </c>
-      <c r="I72" s="4" t="inlineStr"/>
+        <v>128</v>
+      </c>
+      <c r="H72" s="4" t="inlineStr"/>
+      <c r="I72" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
       <c r="J72" s="4" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="4" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>4973</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
@@ -3330,21 +3414,21 @@
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>廣穎</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>98.00</t>
+          <t>34.10</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>-2.5</t>
+          <t>+1.05</t>
         </is>
       </c>
       <c r="G73" s="4" t="n">
-        <v>-558</v>
+        <v>125</v>
       </c>
       <c r="H73" s="4" t="inlineStr"/>
       <c r="I73" s="4" t="inlineStr"/>
@@ -3352,91 +3436,87 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="n">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>5009</t>
+          <t>5340</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>榮剛</t>
+          <t>建榮</t>
         </is>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>32.00</t>
+          <t>59.90</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>+3.1</t>
         </is>
       </c>
       <c r="G74" s="4" t="n">
-        <v>-506</v>
-      </c>
-      <c r="H74" s="14" t="inlineStr">
-        <is>
-          <t>📉NEW</t>
-        </is>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="H74" s="4" t="inlineStr"/>
       <c r="I74" s="4" t="inlineStr"/>
       <c r="J74" s="4" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="4" t="n">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>3324</t>
+          <t>3520</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>雙鴻</t>
+          <t>華盈</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>898.00</t>
+          <t>17.40</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>+13.0</t>
+          <t>+0.1</t>
         </is>
       </c>
       <c r="G75" s="4" t="n">
-        <v>-504</v>
+        <v>115</v>
       </c>
       <c r="H75" s="4" t="inlineStr"/>
       <c r="I75" s="12" t="inlineStr">
         <is>
-          <t>👀連續賣超</t>
+          <t>👀連續買超</t>
         </is>
       </c>
       <c r="J75" s="4" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="4" t="n">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>6182</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
@@ -3446,21 +3526,21 @@
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>合晶</t>
         </is>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>381.50</t>
+          <t>28.65</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>+1.0</t>
+          <t>+0.1</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
-        <v>-500</v>
+        <v>113</v>
       </c>
       <c r="H76" s="4" t="inlineStr"/>
       <c r="I76" s="4" t="inlineStr"/>
@@ -3468,96 +3548,3096 @@
     </row>
     <row r="77">
       <c r="A77" s="4" t="n">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>5438</t>
+          <t>6462</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>東友</t>
+          <t>神盾</t>
         </is>
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>21.85</t>
+          <t>124.00</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>-0.4</t>
+          <t>+0.5</t>
         </is>
       </c>
       <c r="G77" s="4" t="n">
-        <v>-471</v>
-      </c>
-      <c r="H77" s="14" t="inlineStr">
-        <is>
-          <t>📉NEW</t>
-        </is>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="H77" s="4" t="inlineStr"/>
       <c r="I77" s="12" t="inlineStr">
         <is>
-          <t>👀異常波動(2.9σ)</t>
-        </is>
-      </c>
-      <c r="J77" s="4" t="inlineStr">
-        <is>
-          <t>均:-0 標差:160</t>
-        </is>
-      </c>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J77" s="4" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="B78" s="4" t="inlineStr">
+        <is>
+          <t>4721</t>
+        </is>
+      </c>
+      <c r="C78" s="4" t="inlineStr">
+        <is>
+          <t>化學工業</t>
+        </is>
+      </c>
+      <c r="D78" s="4" t="inlineStr">
+        <is>
+          <t>美琪瑪</t>
+        </is>
+      </c>
+      <c r="E78" s="4" t="inlineStr">
+        <is>
+          <t>68.10</t>
+        </is>
+      </c>
+      <c r="F78" s="4" t="inlineStr">
+        <is>
+          <t>+1.0</t>
+        </is>
+      </c>
+      <c r="G78" s="4" t="n">
+        <v>112</v>
+      </c>
+      <c r="H78" s="4" t="inlineStr"/>
+      <c r="I78" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J78" s="4" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="n">
+        <v>76</v>
+      </c>
+      <c r="B79" s="4" t="inlineStr">
+        <is>
+          <t>4128</t>
+        </is>
+      </c>
+      <c r="C79" s="4" t="inlineStr">
+        <is>
+          <t>生技醫療業</t>
+        </is>
+      </c>
+      <c r="D79" s="4" t="inlineStr">
+        <is>
+          <t>中天</t>
+        </is>
+      </c>
+      <c r="E79" s="4" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="F79" s="4" t="inlineStr">
+        <is>
+          <t>+0.4</t>
+        </is>
+      </c>
+      <c r="G79" s="4" t="n">
+        <v>110</v>
+      </c>
+      <c r="H79" s="4" t="inlineStr"/>
+      <c r="I79" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J79" s="4" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="n">
+        <v>77</v>
+      </c>
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t>4953</t>
+        </is>
+      </c>
+      <c r="C80" s="4" t="inlineStr">
+        <is>
+          <t>資訊服務業</t>
+        </is>
+      </c>
+      <c r="D80" s="4" t="inlineStr">
+        <is>
+          <t>緯軟</t>
+        </is>
+      </c>
+      <c r="E80" s="4" t="inlineStr">
+        <is>
+          <t>126.00</t>
+        </is>
+      </c>
+      <c r="F80" s="4" t="inlineStr">
+        <is>
+          <t>+1.0</t>
+        </is>
+      </c>
+      <c r="G80" s="4" t="n">
+        <v>110</v>
+      </c>
+      <c r="H80" s="4" t="inlineStr"/>
+      <c r="I80" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J80" s="4" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="n">
+        <v>78</v>
+      </c>
+      <c r="B81" s="4" t="inlineStr">
+        <is>
+          <t>5386</t>
+        </is>
+      </c>
+      <c r="C81" s="4" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="D81" s="4" t="inlineStr">
+        <is>
+          <t>青雲</t>
+        </is>
+      </c>
+      <c r="E81" s="4" t="inlineStr">
+        <is>
+          <t>73.30</t>
+        </is>
+      </c>
+      <c r="F81" s="4" t="inlineStr">
+        <is>
+          <t>+0.8</t>
+        </is>
+      </c>
+      <c r="G81" s="4" t="n">
+        <v>106</v>
+      </c>
+      <c r="H81" s="4" t="inlineStr"/>
+      <c r="I81" s="4" t="inlineStr"/>
+      <c r="J81" s="4" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="n">
+        <v>79</v>
+      </c>
+      <c r="B82" s="4" t="inlineStr">
+        <is>
+          <t>6425</t>
+        </is>
+      </c>
+      <c r="C82" s="4" t="inlineStr">
+        <is>
+          <t>電機機械</t>
+        </is>
+      </c>
+      <c r="D82" s="4" t="inlineStr">
+        <is>
+          <t>易發</t>
+        </is>
+      </c>
+      <c r="E82" s="4" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F82" s="4" t="inlineStr">
+        <is>
+          <t>+3.3</t>
+        </is>
+      </c>
+      <c r="G82" s="4" t="n">
+        <v>105</v>
+      </c>
+      <c r="H82" s="4" t="inlineStr"/>
+      <c r="I82" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J82" s="4" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="B83" s="4" t="inlineStr">
+        <is>
+          <t>4909</t>
+        </is>
+      </c>
+      <c r="C83" s="4" t="inlineStr">
+        <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="D83" s="4" t="inlineStr">
+        <is>
+          <t>新復興</t>
+        </is>
+      </c>
+      <c r="E83" s="4" t="inlineStr">
+        <is>
+          <t>42.65</t>
+        </is>
+      </c>
+      <c r="F83" s="4" t="inlineStr">
+        <is>
+          <t>+0.25</t>
+        </is>
+      </c>
+      <c r="G83" s="4" t="n">
+        <v>104</v>
+      </c>
+      <c r="H83" s="4" t="inlineStr"/>
+      <c r="I83" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J83" s="4" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="n">
+        <v>81</v>
+      </c>
+      <c r="B84" s="4" t="inlineStr">
+        <is>
+          <t>3685</t>
+        </is>
+      </c>
+      <c r="C84" s="4" t="inlineStr">
+        <is>
+          <t>電機機械</t>
+        </is>
+      </c>
+      <c r="D84" s="4" t="inlineStr">
+        <is>
+          <t>元創精密</t>
+        </is>
+      </c>
+      <c r="E84" s="4" t="inlineStr">
+        <is>
+          <t>33.85</t>
+        </is>
+      </c>
+      <c r="F84" s="4" t="inlineStr">
+        <is>
+          <t>+0.7</t>
+        </is>
+      </c>
+      <c r="G84" s="4" t="n">
+        <v>103</v>
+      </c>
+      <c r="H84" s="4" t="inlineStr"/>
+      <c r="I84" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J84" s="4" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="n">
+        <v>82</v>
+      </c>
+      <c r="B85" s="4" t="inlineStr">
+        <is>
+          <t>6015</t>
+        </is>
+      </c>
+      <c r="C85" s="4" t="inlineStr">
+        <is>
+          <t>金融保險業</t>
+        </is>
+      </c>
+      <c r="D85" s="4" t="inlineStr">
+        <is>
+          <t>宏遠證</t>
+        </is>
+      </c>
+      <c r="E85" s="4" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="F85" s="4" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="G85" s="4" t="n">
+        <v>103</v>
+      </c>
+      <c r="H85" s="4" t="inlineStr"/>
+      <c r="I85" s="4" t="inlineStr"/>
+      <c r="J85" s="4" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="n">
+        <v>83</v>
+      </c>
+      <c r="B86" s="4" t="inlineStr">
+        <is>
+          <t>3325</t>
+        </is>
+      </c>
+      <c r="C86" s="4" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="D86" s="4" t="inlineStr">
+        <is>
+          <t>旭品</t>
+        </is>
+      </c>
+      <c r="E86" s="4" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="F86" s="4" t="inlineStr">
+        <is>
+          <t>+0.25</t>
+        </is>
+      </c>
+      <c r="G86" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H86" s="4" t="inlineStr"/>
+      <c r="I86" s="4" t="inlineStr"/>
+      <c r="J86" s="4" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="n">
+        <v>84</v>
+      </c>
+      <c r="B87" s="4" t="inlineStr">
+        <is>
+          <t>5398</t>
+        </is>
+      </c>
+      <c r="C87" s="4" t="inlineStr">
+        <is>
+          <t>其他業</t>
+        </is>
+      </c>
+      <c r="D87" s="4" t="inlineStr">
+        <is>
+          <t>慕康生醫</t>
+        </is>
+      </c>
+      <c r="E87" s="4" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="F87" s="4" t="inlineStr">
+        <is>
+          <t>+1.55</t>
+        </is>
+      </c>
+      <c r="G87" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H87" s="4" t="inlineStr"/>
+      <c r="I87" s="12" t="inlineStr">
+        <is>
+          <t>👀異常波動(3.1σ)</t>
+        </is>
+      </c>
+      <c r="J87" s="4" t="inlineStr">
+        <is>
+          <t>均:-7 標差:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="n">
+        <v>85</v>
+      </c>
+      <c r="B88" s="4" t="inlineStr">
+        <is>
+          <t>5201</t>
+        </is>
+      </c>
+      <c r="C88" s="4" t="inlineStr">
+        <is>
+          <t>資訊服務業</t>
+        </is>
+      </c>
+      <c r="D88" s="4" t="inlineStr">
+        <is>
+          <t>凱衛</t>
+        </is>
+      </c>
+      <c r="E88" s="4" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="F88" s="4" t="inlineStr">
+        <is>
+          <t>+1.65</t>
+        </is>
+      </c>
+      <c r="G88" s="4" t="n">
+        <v>93</v>
+      </c>
+      <c r="H88" s="4" t="inlineStr"/>
+      <c r="I88" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J88" s="4" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="n">
+        <v>86</v>
+      </c>
+      <c r="B89" s="4" t="inlineStr">
+        <is>
+          <t>3339</t>
+        </is>
+      </c>
+      <c r="C89" s="4" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="D89" s="4" t="inlineStr">
+        <is>
+          <t>泰谷</t>
+        </is>
+      </c>
+      <c r="E89" s="4" t="inlineStr">
+        <is>
+          <t>25.65</t>
+        </is>
+      </c>
+      <c r="F89" s="4" t="inlineStr">
+        <is>
+          <t>+0.75</t>
+        </is>
+      </c>
+      <c r="G89" s="4" t="n">
+        <v>86</v>
+      </c>
+      <c r="H89" s="4" t="inlineStr"/>
+      <c r="I89" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J89" s="4" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="n">
+        <v>87</v>
+      </c>
+      <c r="B90" s="4" t="inlineStr">
+        <is>
+          <t>3546</t>
+        </is>
+      </c>
+      <c r="C90" s="4" t="inlineStr">
+        <is>
+          <t>文化創意業</t>
+        </is>
+      </c>
+      <c r="D90" s="4" t="inlineStr">
+        <is>
+          <t>宇峻</t>
+        </is>
+      </c>
+      <c r="E90" s="4" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F90" s="4" t="inlineStr">
+        <is>
+          <t>+0.4</t>
+        </is>
+      </c>
+      <c r="G90" s="4" t="n">
+        <v>85</v>
+      </c>
+      <c r="H90" s="4" t="inlineStr"/>
+      <c r="I90" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J90" s="4" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="n">
+        <v>88</v>
+      </c>
+      <c r="B91" s="4" t="inlineStr">
+        <is>
+          <t>6143</t>
+        </is>
+      </c>
+      <c r="C91" s="4" t="inlineStr">
+        <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="D91" s="4" t="inlineStr">
+        <is>
+          <t>振曜</t>
+        </is>
+      </c>
+      <c r="E91" s="4" t="inlineStr">
+        <is>
+          <t>131.00</t>
+        </is>
+      </c>
+      <c r="F91" s="4" t="inlineStr">
+        <is>
+          <t>-0.0</t>
+        </is>
+      </c>
+      <c r="G91" s="4" t="n">
+        <v>85</v>
+      </c>
+      <c r="H91" s="4" t="inlineStr"/>
+      <c r="I91" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J91" s="4" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="n">
+        <v>89</v>
+      </c>
+      <c r="B92" s="4" t="inlineStr">
+        <is>
+          <t>8183</t>
+        </is>
+      </c>
+      <c r="C92" s="4" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="D92" s="4" t="inlineStr">
+        <is>
+          <t>精星</t>
+        </is>
+      </c>
+      <c r="E92" s="4" t="inlineStr">
+        <is>
+          <t>33.35</t>
+        </is>
+      </c>
+      <c r="F92" s="4" t="inlineStr">
+        <is>
+          <t>+0.65</t>
+        </is>
+      </c>
+      <c r="G92" s="4" t="n">
+        <v>84</v>
+      </c>
+      <c r="H92" s="4" t="inlineStr"/>
+      <c r="I92" s="4" t="inlineStr"/>
+      <c r="J92" s="4" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="B93" s="4" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="C93" s="4" t="inlineStr">
+        <is>
+          <t>建材營造業</t>
+        </is>
+      </c>
+      <c r="D93" s="4" t="inlineStr">
+        <is>
+          <t>亞昕</t>
+        </is>
+      </c>
+      <c r="E93" s="4" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="F93" s="4" t="inlineStr">
+        <is>
+          <t>+0.45</t>
+        </is>
+      </c>
+      <c r="G93" s="4" t="n">
+        <v>83</v>
+      </c>
+      <c r="H93" s="4" t="inlineStr"/>
+      <c r="I93" s="4" t="inlineStr"/>
+      <c r="J93" s="4" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="n">
+        <v>91</v>
+      </c>
+      <c r="B94" s="4" t="inlineStr">
+        <is>
+          <t>6138</t>
+        </is>
+      </c>
+      <c r="C94" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D94" s="4" t="inlineStr">
+        <is>
+          <t>茂達</t>
+        </is>
+      </c>
+      <c r="E94" s="4" t="inlineStr">
+        <is>
+          <t>240.00</t>
+        </is>
+      </c>
+      <c r="F94" s="4" t="inlineStr">
+        <is>
+          <t>+5.0</t>
+        </is>
+      </c>
+      <c r="G94" s="4" t="n">
+        <v>83</v>
+      </c>
+      <c r="H94" s="4" t="inlineStr"/>
+      <c r="I94" s="4" t="inlineStr"/>
+      <c r="J94" s="4" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="n">
+        <v>92</v>
+      </c>
+      <c r="B95" s="4" t="inlineStr">
+        <is>
+          <t>3529</t>
+        </is>
+      </c>
+      <c r="C95" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D95" s="4" t="inlineStr">
+        <is>
+          <t>力旺</t>
+        </is>
+      </c>
+      <c r="E95" s="4" t="inlineStr">
+        <is>
+          <t>1990.00</t>
+        </is>
+      </c>
+      <c r="F95" s="4" t="inlineStr">
+        <is>
+          <t>+15.0</t>
+        </is>
+      </c>
+      <c r="G95" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="H95" s="4" t="inlineStr"/>
+      <c r="I95" s="4" t="inlineStr"/>
+      <c r="J95" s="4" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="n">
+        <v>93</v>
+      </c>
+      <c r="B96" s="4" t="inlineStr">
+        <is>
+          <t>3297</t>
+        </is>
+      </c>
+      <c r="C96" s="4" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="D96" s="4" t="inlineStr">
+        <is>
+          <t>杭特</t>
+        </is>
+      </c>
+      <c r="E96" s="4" t="inlineStr">
+        <is>
+          <t>43.85</t>
+        </is>
+      </c>
+      <c r="F96" s="4" t="inlineStr">
+        <is>
+          <t>-0.55</t>
+        </is>
+      </c>
+      <c r="G96" s="4" t="n">
+        <v>79</v>
+      </c>
+      <c r="H96" s="4" t="inlineStr"/>
+      <c r="I96" s="4" t="inlineStr"/>
+      <c r="J96" s="4" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="n">
+        <v>94</v>
+      </c>
+      <c r="B97" s="4" t="inlineStr">
+        <is>
+          <t>6492</t>
+        </is>
+      </c>
+      <c r="C97" s="4" t="inlineStr">
+        <is>
+          <t>生技醫療業</t>
+        </is>
+      </c>
+      <c r="D97" s="4" t="inlineStr">
+        <is>
+          <t>生華科</t>
+        </is>
+      </c>
+      <c r="E97" s="4" t="inlineStr">
+        <is>
+          <t>41.65</t>
+        </is>
+      </c>
+      <c r="F97" s="4" t="inlineStr">
+        <is>
+          <t>+0.15</t>
+        </is>
+      </c>
+      <c r="G97" s="4" t="n">
+        <v>79</v>
+      </c>
+      <c r="H97" s="4" t="inlineStr"/>
+      <c r="I97" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J97" s="4" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="B98" s="4" t="inlineStr">
+        <is>
+          <t>4416</t>
+        </is>
+      </c>
+      <c r="C98" s="4" t="inlineStr">
+        <is>
+          <t>建材營造業</t>
+        </is>
+      </c>
+      <c r="D98" s="4" t="inlineStr">
+        <is>
+          <t>三圓</t>
+        </is>
+      </c>
+      <c r="E98" s="4" t="inlineStr">
+        <is>
+          <t>33.20</t>
+        </is>
+      </c>
+      <c r="F98" s="4" t="inlineStr">
+        <is>
+          <t>-0.15</t>
+        </is>
+      </c>
+      <c r="G98" s="4" t="n">
+        <v>76</v>
+      </c>
+      <c r="H98" s="4" t="inlineStr"/>
+      <c r="I98" s="12" t="inlineStr">
+        <is>
+          <t>👀異常波動(4.1σ)+連續買超</t>
+        </is>
+      </c>
+      <c r="J98" s="4" t="inlineStr">
+        <is>
+          <t>均:2 標差:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="4" t="n">
+        <v>96</v>
+      </c>
+      <c r="B99" s="4" t="inlineStr">
+        <is>
+          <t>6219</t>
+        </is>
+      </c>
+      <c r="C99" s="4" t="inlineStr">
+        <is>
+          <t>建材營造業</t>
+        </is>
+      </c>
+      <c r="D99" s="4" t="inlineStr">
+        <is>
+          <t>富旺</t>
+        </is>
+      </c>
+      <c r="E99" s="4" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="F99" s="4" t="inlineStr">
+        <is>
+          <t>+0.5</t>
+        </is>
+      </c>
+      <c r="G99" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="H99" s="4" t="inlineStr"/>
+      <c r="I99" s="4" t="inlineStr"/>
+      <c r="J99" s="4" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="n">
+        <v>97</v>
+      </c>
+      <c r="B100" s="4" t="inlineStr">
+        <is>
+          <t>6584</t>
+        </is>
+      </c>
+      <c r="C100" s="4" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="D100" s="4" t="inlineStr">
+        <is>
+          <t>南俊國際</t>
+        </is>
+      </c>
+      <c r="E100" s="4" t="inlineStr">
+        <is>
+          <t>359.00</t>
+        </is>
+      </c>
+      <c r="F100" s="4" t="inlineStr">
+        <is>
+          <t>+8.5</t>
+        </is>
+      </c>
+      <c r="G100" s="4" t="n">
+        <v>73</v>
+      </c>
+      <c r="H100" s="4" t="inlineStr"/>
+      <c r="I100" s="4" t="inlineStr"/>
+      <c r="J100" s="4" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="4" t="n">
+        <v>98</v>
+      </c>
+      <c r="B101" s="4" t="inlineStr">
+        <is>
+          <t>3691</t>
+        </is>
+      </c>
+      <c r="C101" s="4" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="D101" s="4" t="inlineStr">
+        <is>
+          <t>碩禾</t>
+        </is>
+      </c>
+      <c r="E101" s="4" t="inlineStr">
+        <is>
+          <t>71.10</t>
+        </is>
+      </c>
+      <c r="F101" s="4" t="inlineStr">
+        <is>
+          <t>+0.7</t>
+        </is>
+      </c>
+      <c r="G101" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="H101" s="4" t="inlineStr"/>
+      <c r="I101" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J101" s="4" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="n">
+        <v>99</v>
+      </c>
+      <c r="B102" s="4" t="inlineStr">
+        <is>
+          <t>3207</t>
+        </is>
+      </c>
+      <c r="C102" s="4" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="D102" s="4" t="inlineStr">
+        <is>
+          <t>耀勝</t>
+        </is>
+      </c>
+      <c r="E102" s="4" t="inlineStr">
+        <is>
+          <t>68.90</t>
+        </is>
+      </c>
+      <c r="F102" s="4" t="inlineStr">
+        <is>
+          <t>-0.0</t>
+        </is>
+      </c>
+      <c r="G102" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="H102" s="4" t="inlineStr"/>
+      <c r="I102" s="12" t="inlineStr">
+        <is>
+          <t>👀連續買超</t>
+        </is>
+      </c>
+      <c r="J102" s="4" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="B103" s="4" t="inlineStr">
+        <is>
+          <t>4113</t>
+        </is>
+      </c>
+      <c r="C103" s="4" t="inlineStr">
+        <is>
+          <t>建材營造業</t>
+        </is>
+      </c>
+      <c r="D103" s="4" t="inlineStr">
+        <is>
+          <t>聯上</t>
+        </is>
+      </c>
+      <c r="E103" s="4" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F103" s="4" t="inlineStr">
+        <is>
+          <t>+0.15</t>
+        </is>
+      </c>
+      <c r="G103" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="H103" s="4" t="inlineStr"/>
+      <c r="I103" s="4" t="inlineStr"/>
+      <c r="J103" s="4" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="n"/>
+      <c r="B104" s="4" t="n"/>
+      <c r="C104" s="4" t="n"/>
+      <c r="D104" s="4" t="n"/>
+      <c r="E104" s="4" t="n"/>
+      <c r="F104" s="4" t="n"/>
+      <c r="G104" s="4" t="n"/>
+      <c r="H104" s="4" t="n"/>
+      <c r="I104" s="4" t="n"/>
+      <c r="J104" s="4" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="4" t="n"/>
+      <c r="B105" s="4" t="n"/>
+      <c r="C105" s="4" t="n"/>
+      <c r="D105" s="4" t="n"/>
+      <c r="E105" s="4" t="n"/>
+      <c r="F105" s="4" t="n"/>
+      <c r="G105" s="4" t="n"/>
+      <c r="H105" s="4" t="n"/>
+      <c r="I105" s="4" t="n"/>
+      <c r="J105" s="4" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>【2025-11-27 賣超 TOP 50】</t>
+        </is>
+      </c>
+      <c r="B106" s="15" t="n"/>
+      <c r="C106" s="15" t="n"/>
+      <c r="D106" s="15" t="n"/>
+      <c r="E106" s="15" t="n"/>
+      <c r="F106" s="15" t="n"/>
+      <c r="G106" s="15" t="n"/>
+      <c r="H106" s="15" t="n"/>
+      <c r="I106" s="15" t="n"/>
+      <c r="J106" s="16" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="4" t="n"/>
+      <c r="B107" s="4" t="n"/>
+      <c r="C107" s="4" t="n"/>
+      <c r="D107" s="4" t="n"/>
+      <c r="E107" s="4" t="n"/>
+      <c r="F107" s="4" t="n"/>
+      <c r="G107" s="4" t="n"/>
+      <c r="H107" s="4" t="n"/>
+      <c r="I107" s="4" t="n"/>
+      <c r="J107" s="4" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="5" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B108" s="5" t="inlineStr">
+        <is>
+          <t>證券代號</t>
+        </is>
+      </c>
+      <c r="C108" s="5" t="inlineStr">
+        <is>
+          <t>證券領域</t>
+        </is>
+      </c>
+      <c r="D108" s="5" t="inlineStr">
+        <is>
+          <t>證券名稱</t>
+        </is>
+      </c>
+      <c r="E108" s="5" t="inlineStr">
+        <is>
+          <t>收盤價</t>
+        </is>
+      </c>
+      <c r="F108" s="5" t="inlineStr">
+        <is>
+          <t>漲跌價差</t>
+        </is>
+      </c>
+      <c r="G108" s="5" t="inlineStr">
+        <is>
+          <t>買賣超張數</t>
+        </is>
+      </c>
+      <c r="H108" s="9" t="inlineStr">
+        <is>
+          <t>新進榜</t>
+        </is>
+      </c>
+      <c r="I108" s="10" t="inlineStr">
+        <is>
+          <t>值得觀察</t>
+        </is>
+      </c>
+      <c r="J108" s="11" t="inlineStr">
+        <is>
+          <t>統計數據(60天)</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B109" s="4" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="C109" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D109" s="4" t="inlineStr">
+        <is>
+          <t>長科*</t>
+        </is>
+      </c>
+      <c r="E109" s="4" t="inlineStr">
+        <is>
+          <t>43.05</t>
+        </is>
+      </c>
+      <c r="F109" s="4" t="inlineStr">
+        <is>
+          <t>+1.95</t>
+        </is>
+      </c>
+      <c r="G109" s="4" t="n">
+        <v>-2737</v>
+      </c>
+      <c r="H109" s="14" t="inlineStr">
+        <is>
+          <t>📉NEW</t>
+        </is>
+      </c>
+      <c r="I109" s="4" t="inlineStr"/>
+      <c r="J109" s="4" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B110" s="4" t="inlineStr">
+        <is>
+          <t>3260</t>
+        </is>
+      </c>
+      <c r="C110" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D110" s="4" t="inlineStr">
+        <is>
+          <t>威剛</t>
+        </is>
+      </c>
+      <c r="E110" s="4" t="inlineStr">
+        <is>
+          <t>176.00</t>
+        </is>
+      </c>
+      <c r="F110" s="4" t="inlineStr">
+        <is>
+          <t>+1.5</t>
+        </is>
+      </c>
+      <c r="G110" s="4" t="n">
+        <v>-2459</v>
+      </c>
+      <c r="H110" s="4" t="inlineStr"/>
+      <c r="I110" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J110" s="4" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B111" s="4" t="inlineStr">
+        <is>
+          <t>5498</t>
+        </is>
+      </c>
+      <c r="C111" s="4" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="D111" s="4" t="inlineStr">
+        <is>
+          <t>凱崴</t>
+        </is>
+      </c>
+      <c r="E111" s="4" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="F111" s="4" t="inlineStr">
+        <is>
+          <t>+0.4</t>
+        </is>
+      </c>
+      <c r="G111" s="4" t="n">
+        <v>-2007</v>
+      </c>
+      <c r="H111" s="4" t="inlineStr"/>
+      <c r="I111" s="4" t="inlineStr"/>
+      <c r="J111" s="4" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B112" s="4" t="inlineStr">
+        <is>
+          <t>5314</t>
+        </is>
+      </c>
+      <c r="C112" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D112" s="4" t="inlineStr">
+        <is>
+          <t>世紀*</t>
+        </is>
+      </c>
+      <c r="E112" s="4" t="inlineStr">
+        <is>
+          <t>111.00</t>
+        </is>
+      </c>
+      <c r="F112" s="4" t="inlineStr">
+        <is>
+          <t>-3.0</t>
+        </is>
+      </c>
+      <c r="G112" s="4" t="n">
+        <v>-1485</v>
+      </c>
+      <c r="H112" s="4" t="inlineStr"/>
+      <c r="I112" s="4" t="inlineStr"/>
+      <c r="J112" s="4" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B113" s="4" t="inlineStr">
+        <is>
+          <t>6290</t>
+        </is>
+      </c>
+      <c r="C113" s="4" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="D113" s="4" t="inlineStr">
+        <is>
+          <t>良維</t>
+        </is>
+      </c>
+      <c r="E113" s="4" t="inlineStr">
+        <is>
+          <t>184.00</t>
+        </is>
+      </c>
+      <c r="F113" s="4" t="inlineStr">
+        <is>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="G113" s="4" t="n">
+        <v>-1131</v>
+      </c>
+      <c r="H113" s="4" t="inlineStr"/>
+      <c r="I113" s="4" t="inlineStr"/>
+      <c r="J113" s="4" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B114" s="4" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="C114" s="4" t="inlineStr">
+        <is>
+          <t>電機機械</t>
+        </is>
+      </c>
+      <c r="D114" s="4" t="inlineStr">
+        <is>
+          <t>協易機</t>
+        </is>
+      </c>
+      <c r="E114" s="4" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="F114" s="4" t="inlineStr">
+        <is>
+          <t>-0.2</t>
+        </is>
+      </c>
+      <c r="G114" s="4" t="n">
+        <v>-1098</v>
+      </c>
+      <c r="H114" s="14" t="inlineStr">
+        <is>
+          <t>📉NEW</t>
+        </is>
+      </c>
+      <c r="I114" s="12" t="inlineStr">
+        <is>
+          <t>👀異常波動(5.3σ)</t>
+        </is>
+      </c>
+      <c r="J114" s="4" t="inlineStr">
+        <is>
+          <t>均:14 標差:212</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B115" s="4" t="inlineStr">
+        <is>
+          <t>8042</t>
+        </is>
+      </c>
+      <c r="C115" s="4" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="D115" s="4" t="inlineStr">
+        <is>
+          <t>金山電</t>
+        </is>
+      </c>
+      <c r="E115" s="4" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+      <c r="F115" s="4" t="inlineStr">
+        <is>
+          <t>+1.3</t>
+        </is>
+      </c>
+      <c r="G115" s="4" t="n">
+        <v>-1064</v>
+      </c>
+      <c r="H115" s="4" t="inlineStr"/>
+      <c r="I115" s="4" t="inlineStr"/>
+      <c r="J115" s="4" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B116" s="4" t="inlineStr">
+        <is>
+          <t>8069</t>
+        </is>
+      </c>
+      <c r="C116" s="4" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="D116" s="4" t="inlineStr">
+        <is>
+          <t>元太</t>
+        </is>
+      </c>
+      <c r="E116" s="4" t="inlineStr">
+        <is>
+          <t>193.50</t>
+        </is>
+      </c>
+      <c r="F116" s="4" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="G116" s="4" t="n">
+        <v>-889</v>
+      </c>
+      <c r="H116" s="4" t="inlineStr"/>
+      <c r="I116" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J116" s="4" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B117" s="4" t="inlineStr">
+        <is>
+          <t>6274</t>
+        </is>
+      </c>
+      <c r="C117" s="4" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="D117" s="4" t="inlineStr">
+        <is>
+          <t>台燿</t>
+        </is>
+      </c>
+      <c r="E117" s="4" t="inlineStr">
+        <is>
+          <t>432.00</t>
+        </is>
+      </c>
+      <c r="F117" s="4" t="inlineStr">
+        <is>
+          <t>+2.0</t>
+        </is>
+      </c>
+      <c r="G117" s="4" t="n">
+        <v>-720</v>
+      </c>
+      <c r="H117" s="4" t="inlineStr"/>
+      <c r="I117" s="4" t="inlineStr"/>
+      <c r="J117" s="4" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B118" s="4" t="inlineStr">
+        <is>
+          <t>6147</t>
+        </is>
+      </c>
+      <c r="C118" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D118" s="4" t="inlineStr">
+        <is>
+          <t>頎邦</t>
+        </is>
+      </c>
+      <c r="E118" s="4" t="inlineStr">
+        <is>
+          <t>52.40</t>
+        </is>
+      </c>
+      <c r="F118" s="4" t="inlineStr">
+        <is>
+          <t>+0.2</t>
+        </is>
+      </c>
+      <c r="G118" s="4" t="n">
+        <v>-664</v>
+      </c>
+      <c r="H118" s="4" t="inlineStr"/>
+      <c r="I118" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J118" s="4" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B119" s="4" t="inlineStr">
+        <is>
+          <t>3105</t>
+        </is>
+      </c>
+      <c r="C119" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D119" s="4" t="inlineStr">
+        <is>
+          <t>穩懋</t>
+        </is>
+      </c>
+      <c r="E119" s="4" t="inlineStr">
+        <is>
+          <t>130.00</t>
+        </is>
+      </c>
+      <c r="F119" s="4" t="inlineStr">
+        <is>
+          <t>-1.5</t>
+        </is>
+      </c>
+      <c r="G119" s="4" t="n">
+        <v>-642</v>
+      </c>
+      <c r="H119" s="4" t="inlineStr"/>
+      <c r="I119" s="4" t="inlineStr"/>
+      <c r="J119" s="4" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B120" s="4" t="inlineStr">
+        <is>
+          <t>4991</t>
+        </is>
+      </c>
+      <c r="C120" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D120" s="4" t="inlineStr">
+        <is>
+          <t>環宇-KY</t>
+        </is>
+      </c>
+      <c r="E120" s="4" t="inlineStr">
+        <is>
+          <t>166.50</t>
+        </is>
+      </c>
+      <c r="F120" s="4" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="G120" s="4" t="n">
+        <v>-630</v>
+      </c>
+      <c r="H120" s="4" t="inlineStr"/>
+      <c r="I120" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J120" s="4" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B121" s="4" t="inlineStr">
+        <is>
+          <t>5347</t>
+        </is>
+      </c>
+      <c r="C121" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D121" s="4" t="inlineStr">
+        <is>
+          <t>世界</t>
+        </is>
+      </c>
+      <c r="E121" s="4" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F121" s="4" t="inlineStr">
+        <is>
+          <t>+0.9</t>
+        </is>
+      </c>
+      <c r="G121" s="4" t="n">
+        <v>-622</v>
+      </c>
+      <c r="H121" s="4" t="inlineStr"/>
+      <c r="I121" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J121" s="4" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B122" s="4" t="inlineStr">
+        <is>
+          <t>4510</t>
+        </is>
+      </c>
+      <c r="C122" s="4" t="inlineStr">
+        <is>
+          <t>電機機械</t>
+        </is>
+      </c>
+      <c r="D122" s="4" t="inlineStr">
+        <is>
+          <t>高鋒</t>
+        </is>
+      </c>
+      <c r="E122" s="4" t="inlineStr">
+        <is>
+          <t>38.10</t>
+        </is>
+      </c>
+      <c r="F122" s="4" t="inlineStr">
+        <is>
+          <t>-1.25</t>
+        </is>
+      </c>
+      <c r="G122" s="4" t="n">
+        <v>-612</v>
+      </c>
+      <c r="H122" s="14" t="inlineStr">
+        <is>
+          <t>📉NEW</t>
+        </is>
+      </c>
+      <c r="I122" s="4" t="inlineStr"/>
+      <c r="J122" s="4" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B123" s="4" t="inlineStr">
+        <is>
+          <t>8086</t>
+        </is>
+      </c>
+      <c r="C123" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D123" s="4" t="inlineStr">
+        <is>
+          <t>宏捷科</t>
+        </is>
+      </c>
+      <c r="E123" s="4" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F123" s="4" t="inlineStr">
+        <is>
+          <t>-2.5</t>
+        </is>
+      </c>
+      <c r="G123" s="4" t="n">
+        <v>-558</v>
+      </c>
+      <c r="H123" s="4" t="inlineStr"/>
+      <c r="I123" s="4" t="inlineStr"/>
+      <c r="J123" s="4" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B124" s="4" t="inlineStr">
+        <is>
+          <t>5009</t>
+        </is>
+      </c>
+      <c r="C124" s="4" t="inlineStr">
+        <is>
+          <t>鋼鐵工業</t>
+        </is>
+      </c>
+      <c r="D124" s="4" t="inlineStr">
+        <is>
+          <t>榮剛</t>
+        </is>
+      </c>
+      <c r="E124" s="4" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="F124" s="4" t="inlineStr">
+        <is>
+          <t>-0.45</t>
+        </is>
+      </c>
+      <c r="G124" s="4" t="n">
+        <v>-506</v>
+      </c>
+      <c r="H124" s="14" t="inlineStr">
+        <is>
+          <t>📉NEW</t>
+        </is>
+      </c>
+      <c r="I124" s="4" t="inlineStr"/>
+      <c r="J124" s="4" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="B125" s="4" t="inlineStr">
+        <is>
+          <t>3324</t>
+        </is>
+      </c>
+      <c r="C125" s="4" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="D125" s="4" t="inlineStr">
+        <is>
+          <t>雙鴻</t>
+        </is>
+      </c>
+      <c r="E125" s="4" t="inlineStr">
+        <is>
+          <t>898.00</t>
+        </is>
+      </c>
+      <c r="F125" s="4" t="inlineStr">
+        <is>
+          <t>+13.0</t>
+        </is>
+      </c>
+      <c r="G125" s="4" t="n">
+        <v>-504</v>
+      </c>
+      <c r="H125" s="4" t="inlineStr"/>
+      <c r="I125" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J125" s="4" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="B126" s="4" t="inlineStr">
+        <is>
+          <t>6488</t>
+        </is>
+      </c>
+      <c r="C126" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D126" s="4" t="inlineStr">
+        <is>
+          <t>環球晶</t>
+        </is>
+      </c>
+      <c r="E126" s="4" t="inlineStr">
+        <is>
+          <t>381.50</t>
+        </is>
+      </c>
+      <c r="F126" s="4" t="inlineStr">
+        <is>
+          <t>+1.0</t>
+        </is>
+      </c>
+      <c r="G126" s="4" t="n">
+        <v>-500</v>
+      </c>
+      <c r="H126" s="4" t="inlineStr"/>
+      <c r="I126" s="4" t="inlineStr"/>
+      <c r="J126" s="4" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="B127" s="4" t="inlineStr">
+        <is>
+          <t>5438</t>
+        </is>
+      </c>
+      <c r="C127" s="4" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="D127" s="4" t="inlineStr">
+        <is>
+          <t>東友</t>
+        </is>
+      </c>
+      <c r="E127" s="4" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="F127" s="4" t="inlineStr">
+        <is>
+          <t>-0.4</t>
+        </is>
+      </c>
+      <c r="G127" s="4" t="n">
+        <v>-471</v>
+      </c>
+      <c r="H127" s="14" t="inlineStr">
+        <is>
+          <t>📉NEW</t>
+        </is>
+      </c>
+      <c r="I127" s="12" t="inlineStr">
+        <is>
+          <t>👀異常波動(2.9σ)</t>
+        </is>
+      </c>
+      <c r="J127" s="4" t="inlineStr">
+        <is>
+          <t>均:-0 標差:160</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B78" s="4" t="inlineStr">
+      <c r="B128" s="4" t="inlineStr">
         <is>
           <t>3323</t>
         </is>
       </c>
-      <c r="C78" s="4" t="inlineStr">
+      <c r="C128" s="4" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="D78" s="4" t="inlineStr">
+      <c r="D128" s="4" t="inlineStr">
         <is>
           <t>加百裕</t>
         </is>
       </c>
-      <c r="E78" s="4" t="inlineStr">
+      <c r="E128" s="4" t="inlineStr">
         <is>
           <t>37.45</t>
         </is>
       </c>
-      <c r="F78" s="4" t="inlineStr">
+      <c r="F128" s="4" t="inlineStr">
         <is>
           <t>+0.4</t>
         </is>
       </c>
-      <c r="G78" s="4" t="n">
+      <c r="G128" s="4" t="n">
         <v>-445</v>
       </c>
-      <c r="H78" s="14" t="inlineStr">
+      <c r="H128" s="14" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
       </c>
-      <c r="I78" s="4" t="inlineStr"/>
-      <c r="J78" s="4" t="inlineStr"/>
+      <c r="I128" s="4" t="inlineStr"/>
+      <c r="J128" s="4" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="B129" s="4" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="C129" s="4" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="D129" s="4" t="inlineStr">
+        <is>
+          <t>宜鼎</t>
+        </is>
+      </c>
+      <c r="E129" s="4" t="inlineStr">
+        <is>
+          <t>489.50</t>
+        </is>
+      </c>
+      <c r="F129" s="4" t="inlineStr">
+        <is>
+          <t>+5.5</t>
+        </is>
+      </c>
+      <c r="G129" s="4" t="n">
+        <v>-401</v>
+      </c>
+      <c r="H129" s="4" t="inlineStr"/>
+      <c r="I129" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J129" s="4" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B130" s="4" t="inlineStr">
+        <is>
+          <t>6418</t>
+        </is>
+      </c>
+      <c r="C130" s="4" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="D130" s="4" t="inlineStr">
+        <is>
+          <t>詠昇</t>
+        </is>
+      </c>
+      <c r="E130" s="4" t="inlineStr">
+        <is>
+          <t>46.85</t>
+        </is>
+      </c>
+      <c r="F130" s="4" t="inlineStr">
+        <is>
+          <t>+1.85</t>
+        </is>
+      </c>
+      <c r="G130" s="4" t="n">
+        <v>-390</v>
+      </c>
+      <c r="H130" s="4" t="inlineStr"/>
+      <c r="I130" s="12" t="inlineStr">
+        <is>
+          <t>👀異常波動(2.7σ)+連續賣超</t>
+        </is>
+      </c>
+      <c r="J130" s="4" t="inlineStr">
+        <is>
+          <t>均:50 標差:165</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="B131" s="4" t="inlineStr">
+        <is>
+          <t>8935</t>
+        </is>
+      </c>
+      <c r="C131" s="4" t="inlineStr">
+        <is>
+          <t>其他業</t>
+        </is>
+      </c>
+      <c r="D131" s="4" t="inlineStr">
+        <is>
+          <t>邦泰</t>
+        </is>
+      </c>
+      <c r="E131" s="4" t="inlineStr">
+        <is>
+          <t>18.70</t>
+        </is>
+      </c>
+      <c r="F131" s="4" t="inlineStr">
+        <is>
+          <t>-0.8</t>
+        </is>
+      </c>
+      <c r="G131" s="4" t="n">
+        <v>-389</v>
+      </c>
+      <c r="H131" s="4" t="inlineStr"/>
+      <c r="I131" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J131" s="4" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="B132" s="4" t="inlineStr">
+        <is>
+          <t>4939</t>
+        </is>
+      </c>
+      <c r="C132" s="4" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="D132" s="4" t="inlineStr">
+        <is>
+          <t>亞電</t>
+        </is>
+      </c>
+      <c r="E132" s="4" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F132" s="4" t="inlineStr">
+        <is>
+          <t>+2.8</t>
+        </is>
+      </c>
+      <c r="G132" s="4" t="n">
+        <v>-382</v>
+      </c>
+      <c r="H132" s="4" t="inlineStr"/>
+      <c r="I132" s="4" t="inlineStr"/>
+      <c r="J132" s="4" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="B133" s="4" t="inlineStr">
+        <is>
+          <t>4541</t>
+        </is>
+      </c>
+      <c r="C133" s="4" t="inlineStr">
+        <is>
+          <t>其他業</t>
+        </is>
+      </c>
+      <c r="D133" s="4" t="inlineStr">
+        <is>
+          <t>晟田</t>
+        </is>
+      </c>
+      <c r="E133" s="4" t="inlineStr">
+        <is>
+          <t>44.45</t>
+        </is>
+      </c>
+      <c r="F133" s="4" t="inlineStr">
+        <is>
+          <t>-3.3</t>
+        </is>
+      </c>
+      <c r="G133" s="4" t="n">
+        <v>-380</v>
+      </c>
+      <c r="H133" s="4" t="inlineStr"/>
+      <c r="I133" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J133" s="4" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="B134" s="4" t="inlineStr">
+        <is>
+          <t>1815</t>
+        </is>
+      </c>
+      <c r="C134" s="4" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="D134" s="4" t="inlineStr">
+        <is>
+          <t>富喬</t>
+        </is>
+      </c>
+      <c r="E134" s="4" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F134" s="4" t="inlineStr">
+        <is>
+          <t>nannan</t>
+        </is>
+      </c>
+      <c r="G134" s="4" t="n">
+        <v>-370</v>
+      </c>
+      <c r="H134" s="4" t="inlineStr"/>
+      <c r="I134" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J134" s="4" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="B135" s="4" t="inlineStr">
+        <is>
+          <t>6179</t>
+        </is>
+      </c>
+      <c r="C135" s="4" t="inlineStr">
+        <is>
+          <t>其他業</t>
+        </is>
+      </c>
+      <c r="D135" s="4" t="inlineStr">
+        <is>
+          <t>亞通</t>
+        </is>
+      </c>
+      <c r="E135" s="4" t="inlineStr">
+        <is>
+          <t>30.50</t>
+        </is>
+      </c>
+      <c r="F135" s="4" t="inlineStr">
+        <is>
+          <t>+2.75</t>
+        </is>
+      </c>
+      <c r="G135" s="4" t="n">
+        <v>-362</v>
+      </c>
+      <c r="H135" s="4" t="inlineStr"/>
+      <c r="I135" s="4" t="inlineStr"/>
+      <c r="J135" s="4" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B136" s="4" t="inlineStr">
+        <is>
+          <t>8299</t>
+        </is>
+      </c>
+      <c r="C136" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D136" s="4" t="inlineStr">
+        <is>
+          <t>群聯</t>
+        </is>
+      </c>
+      <c r="E136" s="4" t="inlineStr">
+        <is>
+          <t>1055.00</t>
+        </is>
+      </c>
+      <c r="F136" s="4" t="inlineStr">
+        <is>
+          <t>+40.0</t>
+        </is>
+      </c>
+      <c r="G136" s="4" t="n">
+        <v>-350</v>
+      </c>
+      <c r="H136" s="4" t="inlineStr"/>
+      <c r="I136" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J136" s="4" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="B137" s="4" t="inlineStr">
+        <is>
+          <t>3088</t>
+        </is>
+      </c>
+      <c r="C137" s="4" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="D137" s="4" t="inlineStr">
+        <is>
+          <t>艾訊</t>
+        </is>
+      </c>
+      <c r="E137" s="4" t="inlineStr">
+        <is>
+          <t>76.60</t>
+        </is>
+      </c>
+      <c r="F137" s="4" t="inlineStr">
+        <is>
+          <t>-0.8</t>
+        </is>
+      </c>
+      <c r="G137" s="4" t="n">
+        <v>-313</v>
+      </c>
+      <c r="H137" s="4" t="inlineStr"/>
+      <c r="I137" s="12" t="inlineStr">
+        <is>
+          <t>👀異常波動(2.8σ)+連續賣超</t>
+        </is>
+      </c>
+      <c r="J137" s="4" t="inlineStr">
+        <is>
+          <t>均:-40 標差:98</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="B138" s="4" t="inlineStr">
+        <is>
+          <t>6530</t>
+        </is>
+      </c>
+      <c r="C138" s="4" t="inlineStr">
+        <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="D138" s="4" t="inlineStr">
+        <is>
+          <t>創威</t>
+        </is>
+      </c>
+      <c r="E138" s="4" t="inlineStr">
+        <is>
+          <t>61.10</t>
+        </is>
+      </c>
+      <c r="F138" s="4" t="inlineStr">
+        <is>
+          <t>-0.0</t>
+        </is>
+      </c>
+      <c r="G138" s="4" t="n">
+        <v>-306</v>
+      </c>
+      <c r="H138" s="4" t="inlineStr"/>
+      <c r="I138" s="12" t="inlineStr">
+        <is>
+          <t>👀異常波動(2.7σ)+連續賣超</t>
+        </is>
+      </c>
+      <c r="J138" s="4" t="inlineStr">
+        <is>
+          <t>均:-2 標差:114</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="B139" s="4" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="C139" s="4" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="D139" s="4" t="inlineStr">
+        <is>
+          <t>信昌電</t>
+        </is>
+      </c>
+      <c r="E139" s="4" t="inlineStr">
+        <is>
+          <t>66.80</t>
+        </is>
+      </c>
+      <c r="F139" s="4" t="inlineStr">
+        <is>
+          <t>+2.4</t>
+        </is>
+      </c>
+      <c r="G139" s="4" t="n">
+        <v>-294</v>
+      </c>
+      <c r="H139" s="4" t="inlineStr"/>
+      <c r="I139" s="4" t="inlineStr"/>
+      <c r="J139" s="4" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="B140" s="4" t="inlineStr">
+        <is>
+          <t>8932</t>
+        </is>
+      </c>
+      <c r="C140" s="4" t="inlineStr">
+        <is>
+          <t>其他業</t>
+        </is>
+      </c>
+      <c r="D140" s="4" t="inlineStr">
+        <is>
+          <t>智通*</t>
+        </is>
+      </c>
+      <c r="E140" s="4" t="inlineStr">
+        <is>
+          <t>175.50</t>
+        </is>
+      </c>
+      <c r="F140" s="4" t="inlineStr">
+        <is>
+          <t>+3.5</t>
+        </is>
+      </c>
+      <c r="G140" s="4" t="n">
+        <v>-294</v>
+      </c>
+      <c r="H140" s="4" t="inlineStr"/>
+      <c r="I140" s="4" t="inlineStr"/>
+      <c r="J140" s="4" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="B141" s="4" t="inlineStr">
+        <is>
+          <t>3293</t>
+        </is>
+      </c>
+      <c r="C141" s="4" t="inlineStr">
+        <is>
+          <t>文化創意業</t>
+        </is>
+      </c>
+      <c r="D141" s="4" t="inlineStr">
+        <is>
+          <t>鈊象</t>
+        </is>
+      </c>
+      <c r="E141" s="4" t="inlineStr">
+        <is>
+          <t>751.00</t>
+        </is>
+      </c>
+      <c r="F141" s="4" t="inlineStr">
+        <is>
+          <t>+1.0</t>
+        </is>
+      </c>
+      <c r="G141" s="4" t="n">
+        <v>-260</v>
+      </c>
+      <c r="H141" s="4" t="inlineStr"/>
+      <c r="I141" s="4" t="inlineStr"/>
+      <c r="J141" s="4" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="B142" s="4" t="inlineStr">
+        <is>
+          <t>6245</t>
+        </is>
+      </c>
+      <c r="C142" s="4" t="inlineStr">
+        <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="D142" s="4" t="inlineStr">
+        <is>
+          <t>立端</t>
+        </is>
+      </c>
+      <c r="E142" s="4" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F142" s="4" t="inlineStr">
+        <is>
+          <t>-1.7</t>
+        </is>
+      </c>
+      <c r="G142" s="4" t="n">
+        <v>-257</v>
+      </c>
+      <c r="H142" s="4" t="inlineStr"/>
+      <c r="I142" s="4" t="inlineStr"/>
+      <c r="J142" s="4" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="B143" s="4" t="inlineStr">
+        <is>
+          <t>8048</t>
+        </is>
+      </c>
+      <c r="C143" s="4" t="inlineStr">
+        <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="D143" s="4" t="inlineStr">
+        <is>
+          <t>德勝</t>
+        </is>
+      </c>
+      <c r="E143" s="4" t="inlineStr">
+        <is>
+          <t>67.70</t>
+        </is>
+      </c>
+      <c r="F143" s="4" t="inlineStr">
+        <is>
+          <t>+2.5</t>
+        </is>
+      </c>
+      <c r="G143" s="4" t="n">
+        <v>-251</v>
+      </c>
+      <c r="H143" s="4" t="inlineStr"/>
+      <c r="I143" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J143" s="4" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="B144" s="4" t="inlineStr">
+        <is>
+          <t>6127</t>
+        </is>
+      </c>
+      <c r="C144" s="4" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="D144" s="4" t="inlineStr">
+        <is>
+          <t>九豪</t>
+        </is>
+      </c>
+      <c r="E144" s="4" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="F144" s="4" t="inlineStr">
+        <is>
+          <t>+1.45</t>
+        </is>
+      </c>
+      <c r="G144" s="4" t="n">
+        <v>-230</v>
+      </c>
+      <c r="H144" s="4" t="inlineStr"/>
+      <c r="I144" s="4" t="inlineStr"/>
+      <c r="J144" s="4" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="B145" s="4" t="inlineStr">
+        <is>
+          <t>5481</t>
+        </is>
+      </c>
+      <c r="C145" s="4" t="inlineStr">
+        <is>
+          <t>其他業</t>
+        </is>
+      </c>
+      <c r="D145" s="4" t="inlineStr">
+        <is>
+          <t>新華</t>
+        </is>
+      </c>
+      <c r="E145" s="4" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F145" s="4" t="inlineStr">
+        <is>
+          <t>+0.85</t>
+        </is>
+      </c>
+      <c r="G145" s="4" t="n">
+        <v>-227</v>
+      </c>
+      <c r="H145" s="4" t="inlineStr"/>
+      <c r="I145" s="4" t="inlineStr"/>
+      <c r="J145" s="4" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="B146" s="4" t="inlineStr">
+        <is>
+          <t>3625</t>
+        </is>
+      </c>
+      <c r="C146" s="4" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="D146" s="4" t="inlineStr">
+        <is>
+          <t>西勝</t>
+        </is>
+      </c>
+      <c r="E146" s="4" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F146" s="4" t="inlineStr">
+        <is>
+          <t>+0.8</t>
+        </is>
+      </c>
+      <c r="G146" s="4" t="n">
+        <v>-223</v>
+      </c>
+      <c r="H146" s="4" t="inlineStr"/>
+      <c r="I146" s="4" t="inlineStr"/>
+      <c r="J146" s="4" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="B147" s="4" t="inlineStr">
+        <is>
+          <t>4908</t>
+        </is>
+      </c>
+      <c r="C147" s="4" t="inlineStr">
+        <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="D147" s="4" t="inlineStr">
+        <is>
+          <t>前鼎</t>
+        </is>
+      </c>
+      <c r="E147" s="4" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="F147" s="4" t="inlineStr">
+        <is>
+          <t>+2.7</t>
+        </is>
+      </c>
+      <c r="G147" s="4" t="n">
+        <v>-221</v>
+      </c>
+      <c r="H147" s="4" t="inlineStr"/>
+      <c r="I147" s="4" t="inlineStr"/>
+      <c r="J147" s="4" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="B148" s="4" t="inlineStr">
+        <is>
+          <t>3710</t>
+        </is>
+      </c>
+      <c r="C148" s="4" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="D148" s="4" t="inlineStr">
+        <is>
+          <t>連展投控</t>
+        </is>
+      </c>
+      <c r="E148" s="4" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="F148" s="4" t="inlineStr">
+        <is>
+          <t>-0.28</t>
+        </is>
+      </c>
+      <c r="G148" s="4" t="n">
+        <v>-201</v>
+      </c>
+      <c r="H148" s="4" t="inlineStr"/>
+      <c r="I148" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J148" s="4" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="B149" s="4" t="inlineStr">
+        <is>
+          <t>3438</t>
+        </is>
+      </c>
+      <c r="C149" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D149" s="4" t="inlineStr">
+        <is>
+          <t>類比科</t>
+        </is>
+      </c>
+      <c r="E149" s="4" t="inlineStr">
+        <is>
+          <t>48.10</t>
+        </is>
+      </c>
+      <c r="F149" s="4" t="inlineStr">
+        <is>
+          <t>-0.25</t>
+        </is>
+      </c>
+      <c r="G149" s="4" t="n">
+        <v>-188</v>
+      </c>
+      <c r="H149" s="4" t="inlineStr"/>
+      <c r="I149" s="12" t="inlineStr">
+        <is>
+          <t>👀異常波動(5.2σ)+連續賣超</t>
+        </is>
+      </c>
+      <c r="J149" s="4" t="inlineStr">
+        <is>
+          <t>均:-2 標差:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="B150" s="4" t="inlineStr">
+        <is>
+          <t>5351</t>
+        </is>
+      </c>
+      <c r="C150" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D150" s="4" t="inlineStr">
+        <is>
+          <t>鈺創</t>
+        </is>
+      </c>
+      <c r="E150" s="4" t="inlineStr">
+        <is>
+          <t>39.40</t>
+        </is>
+      </c>
+      <c r="F150" s="4" t="inlineStr">
+        <is>
+          <t>+1.15</t>
+        </is>
+      </c>
+      <c r="G150" s="4" t="n">
+        <v>-176</v>
+      </c>
+      <c r="H150" s="4" t="inlineStr"/>
+      <c r="I150" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J150" s="4" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="B151" s="4" t="inlineStr">
+        <is>
+          <t>6111</t>
+        </is>
+      </c>
+      <c r="C151" s="4" t="inlineStr">
+        <is>
+          <t>文化創意業</t>
+        </is>
+      </c>
+      <c r="D151" s="4" t="inlineStr">
+        <is>
+          <t>大宇資</t>
+        </is>
+      </c>
+      <c r="E151" s="4" t="inlineStr">
+        <is>
+          <t>45.65</t>
+        </is>
+      </c>
+      <c r="F151" s="4" t="inlineStr">
+        <is>
+          <t>-0.8</t>
+        </is>
+      </c>
+      <c r="G151" s="4" t="n">
+        <v>-155</v>
+      </c>
+      <c r="H151" s="4" t="inlineStr"/>
+      <c r="I151" s="4" t="inlineStr"/>
+      <c r="J151" s="4" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="B152" s="4" t="inlineStr">
+        <is>
+          <t>6104</t>
+        </is>
+      </c>
+      <c r="C152" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D152" s="4" t="inlineStr">
+        <is>
+          <t>創惟</t>
+        </is>
+      </c>
+      <c r="E152" s="4" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F152" s="4" t="inlineStr">
+        <is>
+          <t>+0.1</t>
+        </is>
+      </c>
+      <c r="G152" s="4" t="n">
+        <v>-142</v>
+      </c>
+      <c r="H152" s="4" t="inlineStr"/>
+      <c r="I152" s="4" t="inlineStr"/>
+      <c r="J152" s="4" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="B153" s="4" t="inlineStr">
+        <is>
+          <t>8936</t>
+        </is>
+      </c>
+      <c r="C153" s="4" t="inlineStr">
+        <is>
+          <t>其他業</t>
+        </is>
+      </c>
+      <c r="D153" s="4" t="inlineStr">
+        <is>
+          <t>國統</t>
+        </is>
+      </c>
+      <c r="E153" s="4" t="inlineStr">
+        <is>
+          <t>57.60</t>
+        </is>
+      </c>
+      <c r="F153" s="4" t="inlineStr">
+        <is>
+          <t>+0.8</t>
+        </is>
+      </c>
+      <c r="G153" s="4" t="n">
+        <v>-128</v>
+      </c>
+      <c r="H153" s="4" t="inlineStr"/>
+      <c r="I153" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J153" s="4" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="B154" s="4" t="inlineStr">
+        <is>
+          <t>3131</t>
+        </is>
+      </c>
+      <c r="C154" s="4" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="D154" s="4" t="inlineStr">
+        <is>
+          <t>弘塑</t>
+        </is>
+      </c>
+      <c r="E154" s="4" t="inlineStr">
+        <is>
+          <t>1435.00</t>
+        </is>
+      </c>
+      <c r="F154" s="4" t="inlineStr">
+        <is>
+          <t>-25.0</t>
+        </is>
+      </c>
+      <c r="G154" s="4" t="n">
+        <v>-121</v>
+      </c>
+      <c r="H154" s="4" t="inlineStr"/>
+      <c r="I154" s="4" t="inlineStr"/>
+      <c r="J154" s="4" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="B155" s="4" t="inlineStr">
+        <is>
+          <t>3227</t>
+        </is>
+      </c>
+      <c r="C155" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D155" s="4" t="inlineStr">
+        <is>
+          <t>原相</t>
+        </is>
+      </c>
+      <c r="E155" s="4" t="inlineStr">
+        <is>
+          <t>208.00</t>
+        </is>
+      </c>
+      <c r="F155" s="4" t="inlineStr">
+        <is>
+          <t>-0.5</t>
+        </is>
+      </c>
+      <c r="G155" s="4" t="n">
+        <v>-119</v>
+      </c>
+      <c r="H155" s="4" t="inlineStr"/>
+      <c r="I155" s="4" t="inlineStr"/>
+      <c r="J155" s="4" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="B156" s="4" t="inlineStr">
+        <is>
+          <t>3211</t>
+        </is>
+      </c>
+      <c r="C156" s="4" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="D156" s="4" t="inlineStr">
+        <is>
+          <t>順達</t>
+        </is>
+      </c>
+      <c r="E156" s="4" t="inlineStr">
+        <is>
+          <t>268.00</t>
+        </is>
+      </c>
+      <c r="F156" s="4" t="inlineStr">
+        <is>
+          <t>+3.0</t>
+        </is>
+      </c>
+      <c r="G156" s="4" t="n">
+        <v>-115</v>
+      </c>
+      <c r="H156" s="4" t="inlineStr"/>
+      <c r="I156" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J156" s="4" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="B157" s="4" t="inlineStr">
+        <is>
+          <t>4714</t>
+        </is>
+      </c>
+      <c r="C157" s="4" t="inlineStr">
+        <is>
+          <t>化學工業</t>
+        </is>
+      </c>
+      <c r="D157" s="4" t="inlineStr">
+        <is>
+          <t>永捷</t>
+        </is>
+      </c>
+      <c r="E157" s="4" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="F157" s="4" t="inlineStr">
+        <is>
+          <t>-0.0</t>
+        </is>
+      </c>
+      <c r="G157" s="4" t="n">
+        <v>-115</v>
+      </c>
+      <c r="H157" s="4" t="inlineStr"/>
+      <c r="I157" s="4" t="inlineStr"/>
+      <c r="J157" s="4" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="B158" s="4" t="inlineStr">
+        <is>
+          <t>6291</t>
+        </is>
+      </c>
+      <c r="C158" s="4" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="D158" s="4" t="inlineStr">
+        <is>
+          <t>沛亨</t>
+        </is>
+      </c>
+      <c r="E158" s="4" t="inlineStr">
+        <is>
+          <t>170.00</t>
+        </is>
+      </c>
+      <c r="F158" s="4" t="inlineStr">
+        <is>
+          <t>-4.0</t>
+        </is>
+      </c>
+      <c r="G158" s="4" t="n">
+        <v>-114</v>
+      </c>
+      <c r="H158" s="4" t="inlineStr"/>
+      <c r="I158" s="12" t="inlineStr">
+        <is>
+          <t>👀連續賣超</t>
+        </is>
+      </c>
+      <c r="J158" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A106:J106"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/StockInfo/otc_analysis_result_20251127.xlsx
+++ b/StockInfo/otc_analysis_result_20251127.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="20251127" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251127" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
